--- a/volume_worksheet.xlsx
+++ b/volume_worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jb240893\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\downloaded\forest_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D495AA-D873-431C-A73E-79D39EAF5EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9015E5-8E0A-480A-BD94-BD5B58D68146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{EB7FE28A-4742-4964-89A7-68253268C196}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EB7FE28A-4742-4964-89A7-68253268C196}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>Height</t>
   </si>
@@ -324,6 +321,9 @@
   <si>
     <t>merchVol</t>
   </si>
+  <si>
+    <t>basalAreaSqFT</t>
+  </si>
 </sst>
 </file>
 
@@ -333,7 +333,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,35 +636,30 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Accent" xfId="8" xr:uid="{B5D77454-951D-4CC7-B123-382483F30842}"/>
@@ -1656,6 +1651,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1663,7 +1659,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2305,6 +2300,7 @@
       <sheetName val="Sheet1"/>
       <sheetName val="Sheet2"/>
       <sheetName val="Sheet3"/>
+      <sheetName val="FSVolume"/>
     </sheetNames>
     <definedNames>
       <definedName name="calcDib"/>
@@ -2316,6 +2312,7 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2330,6 +2327,7 @@
     <sheetNames>
       <sheetName val="Sheet1"/>
       <sheetName val="Sheet2"/>
+      <sheetName val="FSVolumeAdv"/>
     </sheetNames>
     <definedNames>
       <definedName name="getDibAdv"/>
@@ -2337,6 +2335,7 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2665,19 +2664,19 @@
       <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="12" width="8.85546875" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -2688,7 +2687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2708,7 +2707,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -2724,7 +2723,7 @@
         <v>8.4705162048339844</v>
       </c>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>47</v>
       </c>
@@ -2744,7 +2743,7 @@
         <v>6.0932674407958984</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P6">
         <v>2</v>
       </c>
@@ -2757,20 +2756,20 @@
         <v>5.6294975280761719</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
-      <c r="D7" s="15" t="s">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="26" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6"/>
       <c r="M7" t="s">
         <v>39</v>
       </c>
@@ -2789,38 +2788,38 @@
         <v>5.3919105529785156</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="M8" t="s">
@@ -2841,44 +2840,44 @@
         <v>5.2447710037231445</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="16.5">
+    <row r="9" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" t="s">
         <v>41</v>
       </c>
       <c r="P9">
@@ -2893,40 +2892,40 @@
         <v>5.2441844940185547</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
         <v>61</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>22.5</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>20.5</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="16">
         <f>SQRT(D10*E10)/2.54</f>
         <v>8.4554061397301297</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10">
         <v>18.7</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10">
         <v>16.8</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="17">
         <f>SQRT(G10*H10)/2.54</f>
         <v>6.9781729263321344</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>13.2</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>13.2</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <f>SQRT(J10*K10)/2.54</f>
         <v>5.1968503937007871</v>
       </c>
@@ -2950,40 +2949,40 @@
         <v>5.1697072982788086</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
         <v>51</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>15.3</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>15.2</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="16">
         <f t="shared" ref="F11:F19" si="0">SQRT(D11*E11)/2.54</f>
         <v>6.0039047372309451</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11">
         <v>14.6</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11">
         <v>14</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="17">
         <f t="shared" ref="I11:I19" si="1">SQRT(G11*H11)/2.54</f>
         <v>5.6286822049327609</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>11.4</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>11.2</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <f t="shared" ref="L11:L19" si="2">SQRT(J11*K11)/2.54</f>
         <v>4.4486446903387513</v>
       </c>
@@ -3007,40 +3006,40 @@
         <v>5.0791678428649902</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12">
         <v>43</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>14.5</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>14.3</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="16">
         <f t="shared" si="0"/>
         <v>5.6691546352722257</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12">
         <v>13.2</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12">
         <v>12.9</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="17">
         <f t="shared" si="1"/>
         <v>5.1374558671491837</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>10.4</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>10.4</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <f t="shared" si="2"/>
         <v>4.0944881889763778</v>
       </c>
@@ -3064,40 +3063,40 @@
         <v>4.9883499145507813</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>8</v>
       </c>
       <c r="C13">
         <v>36</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>11.5</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>12.6</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="16">
         <f t="shared" si="0"/>
         <v>4.739150231749341</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13">
         <v>11</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13">
         <v>11.7</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="17">
         <f t="shared" si="1"/>
         <v>4.4663788349265436</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>8.1</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="10">
         <f t="shared" si="2"/>
         <v>3.228106386310972</v>
       </c>
@@ -3121,40 +3120,40 @@
         <v>4.8956727981567383</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14">
         <v>28</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>10.6</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>10.3</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="16">
         <f t="shared" si="0"/>
         <v>4.1137493659516613</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14">
         <v>10.199999999999999</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="17">
         <f t="shared" si="1"/>
         <v>3.9160861419868356</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>6.7</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <v>6.6</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="10">
         <f t="shared" si="2"/>
         <v>2.6180362312671339</v>
       </c>
@@ -3178,40 +3177,40 @@
         <v>4.7997264862060547</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>16</v>
       </c>
       <c r="C15">
         <v>24</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>9.5</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="16">
         <f t="shared" si="0"/>
         <v>3.6806286275654307</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15">
         <v>8.9</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="17">
         <f t="shared" si="1"/>
         <v>3.5625026853113764</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <v>4.7</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <v>4.7</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="10">
         <f t="shared" si="2"/>
         <v>1.8503937007874016</v>
       </c>
@@ -3235,40 +3234,40 @@
         <v>4.6992692947387695</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>20</v>
       </c>
       <c r="C16">
         <v>18</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="18">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="16">
         <f t="shared" si="0"/>
         <v>3.4645669291338583</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16">
         <v>8.5</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16">
         <v>7.1</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="17">
         <f t="shared" si="1"/>
         <v>3.0584748991184179</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>3.8</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <v>3</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="10">
         <f t="shared" si="2"/>
         <v>1.3292868516641048</v>
       </c>
@@ -3292,33 +3291,33 @@
         <v>4.5932440757751465</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>24</v>
       </c>
       <c r="C17">
         <v>12</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="16">
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="16"/>
+      <c r="G17">
         <v>5.4</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17">
         <v>5.2</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="17">
         <f t="shared" si="1"/>
         <v>2.0862427243294128</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <v>0.9</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <v>0.9</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="10">
         <f t="shared" si="2"/>
         <v>0.3543307086614173</v>
       </c>
@@ -3342,40 +3341,40 @@
         <v>4.4808039665222168</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>28</v>
       </c>
       <c r="C18">
         <v>9</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>3.8</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>3.8</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="16">
         <f t="shared" si="0"/>
         <v>1.4960629921259843</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18">
         <v>3.6</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18">
         <v>3.6</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="17">
         <f t="shared" si="1"/>
         <v>1.4173228346456692</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <v>0</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <v>0</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3399,40 +3398,40 @@
         <v>4.3613409996032715</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>31.1</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>0</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>0</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="20">
         <v>0</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="20">
         <v>0</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="11">
         <v>0</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="12">
         <v>0</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3452,7 +3451,7 @@
         <v>4.2345147132873535</v>
       </c>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P20">
         <v>16</v>
       </c>
@@ -3465,7 +3464,7 @@
         <v>4.1002802848815918</v>
       </c>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P21">
         <v>17</v>
       </c>
@@ -3478,7 +3477,7 @@
         <v>3.9589073657989502</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P22">
         <v>18</v>
       </c>
@@ -3491,7 +3490,7 @@
         <v>3.8110105991363525</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="16.5">
+    <row r="23" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="K23" t="s">
         <v>46</v>
       </c>
@@ -3499,7 +3498,7 @@
         <f>SUM(N10:N18)</f>
         <v>2.3610994618389234</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" t="s">
         <v>41</v>
       </c>
       <c r="P23">
@@ -3514,7 +3513,7 @@
         <v>3.6575753688812256</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="16.5">
+    <row r="24" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
         <v>52</v>
       </c>
@@ -3525,7 +3524,7 @@
         <f t="array" ref="N24">[1]!calcTotCubic(1,16,C5,6,31.1)</f>
         <v>2.4</v>
       </c>
-      <c r="O24" s="5" t="s">
+      <c r="O24" t="s">
         <v>41</v>
       </c>
       <c r="P24">
@@ -3540,7 +3539,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="16.5">
+    <row r="25" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="I25">
         <v>3.3</v>
       </c>
@@ -3551,7 +3550,7 @@
         <f t="array" ref="N25">[1]!calcMerchCubic(1,16,$C$5,$C$2,$C$3,$I$25,"FVS")</f>
         <v>1.5</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="O25" t="s">
         <v>41</v>
       </c>
       <c r="P25">
@@ -3566,7 +3565,7 @@
         <v>3.1993727684020996</v>
       </c>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P26">
         <v>22</v>
       </c>
@@ -3579,7 +3578,7 @@
         <v>2.8908090591430664</v>
       </c>
     </row>
-    <row r="27" spans="2:18">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P27">
         <v>23</v>
       </c>
@@ -3592,7 +3591,7 @@
         <v>2.5753304958343506</v>
       </c>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P28">
         <v>24</v>
       </c>
@@ -3605,7 +3604,7 @@
         <v>2.2540805339813232</v>
       </c>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P29">
         <v>25</v>
       </c>
@@ -3618,7 +3617,7 @@
         <v>1.928322434425354</v>
       </c>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P30">
         <v>26</v>
       </c>
@@ -3631,7 +3630,7 @@
         <v>1.599432110786438</v>
       </c>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>35</v>
       </c>
@@ -3647,7 +3646,7 @@
         <v>1.2688969373703003</v>
       </c>
     </row>
-    <row r="32" spans="2:18">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P32">
         <v>28</v>
       </c>
@@ -3660,7 +3659,7 @@
         <v>0.93923330307006836</v>
       </c>
     </row>
-    <row r="33" spans="2:18">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>33</v>
       </c>
@@ -3679,7 +3678,7 @@
         <v>0.6171146035194397</v>
       </c>
     </row>
-    <row r="34" spans="2:18">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>15</v>
       </c>
@@ -3699,7 +3698,7 @@
         <v>0.31035846471786499</v>
       </c>
     </row>
-    <row r="35" spans="2:18">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
@@ -3725,7 +3724,7 @@
         <v>2.6781743392348289E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:18">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>13</v>
       </c>
@@ -3739,7 +3738,7 @@
         <v>0.88809000000000005</v>
       </c>
     </row>
-    <row r="37" spans="2:18">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>14</v>
       </c>
@@ -3753,7 +3752,7 @@
         <v>1.0003500000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:18">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="F38" t="s">
@@ -3763,7 +3762,7 @@
         <v>0.95086000000000004</v>
       </c>
     </row>
-    <row r="39" spans="2:18">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>29</v>
       </c>
@@ -3781,7 +3780,7 @@
         <v>-0.18090000000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:18">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="F40" t="s">
@@ -3791,7 +3790,7 @@
         <v>0.61407</v>
       </c>
     </row>
-    <row r="41" spans="2:18">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="F41" t="s">
@@ -3801,7 +3800,7 @@
         <v>-0.35105999999999998</v>
       </c>
     </row>
-    <row r="42" spans="2:18">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>24</v>
       </c>
@@ -3809,7 +3808,7 @@
         <v>5.6860000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:18">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>25</v>
       </c>
@@ -3817,7 +3816,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="45" spans="2:18">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>16</v>
       </c>
@@ -3834,16 +3833,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:18">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <f>$C$2*SQRT($C$35+$C$36*(B46/$C$3)+$C$37*(B46/$C$3)^2)</f>
+        <f t="shared" ref="C46:C77" si="5">$C$2*SQRT($C$35+$C$36*(B46/$C$3)+$C$37*(B46/$C$3)^2)</f>
         <v>5.6161410238703944</v>
       </c>
       <c r="F46">
-        <f t="shared" ref="F46:F77" si="5">B46/$C$3</f>
+        <f t="shared" ref="F46:F77" si="6">B46/$C$3</f>
         <v>0</v>
       </c>
       <c r="G46">
@@ -3851,658 +3850,658 @@
         <v>2</v>
       </c>
       <c r="H46">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G46^($G$38*F46^2+$G$39*LOG(F46+0.0001)+$G$40*SQRT(F46)+$G$41*EXP(F46)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" ref="H46:H77" si="7">$G$35*$C$2^$G$36*$G$37^$C$2*G46^($G$38*F46^2+$G$39*LOG(F46+0.0001)+$G$40*SQRT(F46)+$G$41*EXP(F46)+$G$42*$C$2/$C$3)</f>
         <v>6.5758640880200891</v>
       </c>
     </row>
-    <row r="47" spans="2:18">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
-        <f>$C$2*SQRT($C$35+$C$36*(B47/$C$3)+$C$37*(B47/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>5.4632710134645119</v>
       </c>
       <c r="F47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.215434083601286E-2</v>
       </c>
       <c r="G47">
-        <f t="shared" ref="G47:G77" si="6">(1-SQRT(F47))/(1-SQRT($G$43))</f>
+        <f t="shared" ref="G47:G77" si="8">(1-SQRT(F47))/(1-SQRT($G$43))</f>
         <v>1.6413673699395837</v>
       </c>
       <c r="H47">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G47^($G$38*F47^2+$G$39*LOG(F47+0.0001)+$G$40*SQRT(F47)+$G$41*EXP(F47)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>5.1146624285624709</v>
       </c>
     </row>
-    <row r="48" spans="2:18">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48">
-        <f>$C$2*SQRT($C$35+$C$36*(B48/$C$3)+$C$37*(B48/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>5.3102515691198153</v>
       </c>
       <c r="F48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.4308681672025719E-2</v>
       </c>
       <c r="G48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4928168706590261</v>
       </c>
       <c r="H48">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G48^($G$38*F48^2+$G$39*LOG(F48+0.0001)+$G$40*SQRT(F48)+$G$41*EXP(F48)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>5.0645673395016013</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49">
-        <f>$C$2*SQRT($C$35+$C$36*(B49/$C$3)+$C$37*(B49/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>5.157069388939199</v>
       </c>
       <c r="F49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.6463022508038579E-2</v>
       </c>
       <c r="G49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3788300634833055</v>
       </c>
       <c r="H49">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G49^($G$38*F49^2+$G$39*LOG(F49+0.0001)+$G$40*SQRT(F49)+$G$41*EXP(F49)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>5.0531437295078225</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>4</v>
       </c>
       <c r="C50">
-        <f>$C$2*SQRT($C$35+$C$36*(B50/$C$3)+$C$37*(B50/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>5.0037095270953067</v>
       </c>
       <c r="F50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.12861736334405144</v>
       </c>
       <c r="G50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2827347398791673</v>
       </c>
       <c r="H50">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G50^($G$38*F50^2+$G$39*LOG(F50+0.0001)+$G$40*SQRT(F50)+$G$41*EXP(F50)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>5.0518533240796355</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>5</v>
       </c>
       <c r="C51">
-        <f>$C$2*SQRT($C$35+$C$36*(B51/$C$3)+$C$37*(B51/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>4.8501551289594147</v>
       </c>
       <c r="F51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.16077170418006431</v>
       </c>
       <c r="G51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1980730602353744</v>
       </c>
       <c r="H51">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G51^($G$38*F51^2+$G$39*LOG(F51+0.0001)+$G$40*SQRT(F51)+$G$41*EXP(F51)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>5.0527410155489969</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>6</v>
       </c>
       <c r="C52">
-        <f>$C$2*SQRT($C$35+$C$36*(B52/$C$3)+$C$37*(B52/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>4.6963871127298091</v>
       </c>
       <c r="F52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.19292604501607716</v>
       </c>
       <c r="G52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.121533051239656</v>
       </c>
       <c r="H52">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G52^($G$38*F52^2+$G$39*LOG(F52+0.0001)+$G$40*SQRT(F52)+$G$41*EXP(F52)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>5.0521789088444793</v>
       </c>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>7</v>
       </c>
       <c r="C53">
-        <f>$C$2*SQRT($C$35+$C$36*(B53/$C$3)+$C$37*(B53/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>4.5423837843663453</v>
       </c>
       <c r="F53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.22508038585209003</v>
       </c>
       <c r="G53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0511472488271112</v>
       </c>
       <c r="H53">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G53^($G$38*F53^2+$G$39*LOG(F53+0.0001)+$G$40*SQRT(F53)+$G$41*EXP(F53)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>5.0478892085896696</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>8</v>
       </c>
       <c r="C54">
-        <f>$C$2*SQRT($C$35+$C$36*(B54/$C$3)+$C$37*(B54/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>4.3881203687399397</v>
       </c>
       <c r="F54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25723472668810288</v>
       </c>
       <c r="G54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.98563374131805248</v>
       </c>
       <c r="H54">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G54^($G$38*F54^2+$G$39*LOG(F54+0.0001)+$G$40*SQRT(F54)+$G$41*EXP(F54)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>5.0380967490800392</v>
       </c>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>9</v>
       </c>
       <c r="C55">
-        <f>$C$2*SQRT($C$35+$C$36*(B55/$C$3)+$C$37*(B55/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>4.2335684346473874</v>
       </c>
       <c r="F55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.28938906752411575</v>
       </c>
       <c r="G55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.92410210981875096</v>
       </c>
       <c r="H55">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G55^($G$38*F55^2+$G$39*LOG(F55+0.0001)+$G$40*SQRT(F55)+$G$41*EXP(F55)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>5.0212256501832897</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>10</v>
       </c>
       <c r="C56">
-        <f>$C$2*SQRT($C$35+$C$36*(B56/$C$3)+$C$37*(B56/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>4.0786951841675387</v>
       </c>
       <c r="F56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.32154340836012862</v>
       </c>
       <c r="G56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.86590404575251467</v>
       </c>
       <c r="H56">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G56^($G$38*F56^2+$G$39*LOG(F56+0.0001)+$G$40*SQRT(F56)+$G$41*EXP(F56)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>4.995775580507396</v>
       </c>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>11</v>
       </c>
       <c r="C57">
-        <f>$C$2*SQRT($C$35+$C$36*(B57/$C$3)+$C$37*(B57/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>3.9234625669268945</v>
       </c>
       <c r="F57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35369774919614144</v>
       </c>
       <c r="G57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.81055012851126595</v>
       </c>
       <c r="H57">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G57^($G$38*F57^2+$G$39*LOG(F57+0.0001)+$G$40*SQRT(F57)+$G$41*EXP(F57)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>4.9602687393747003</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>12</v>
       </c>
       <c r="C58">
-        <f>$C$2*SQRT($C$35+$C$36*(B58/$C$3)+$C$37*(B58/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>3.7678261659766128</v>
       </c>
       <c r="F58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.38585209003215432</v>
       </c>
       <c r="G58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.757660126966611</v>
       </c>
       <c r="H58">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G58^($G$38*F58^2+$G$39*LOG(F58+0.0001)+$G$40*SQRT(F58)+$G$41*EXP(F58)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>4.9132290194711041</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>13</v>
       </c>
       <c r="C59">
-        <f>$C$2*SQRT($C$35+$C$36*(B59/$C$3)+$C$37*(B59/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>3.6117337822956754</v>
       </c>
       <c r="F59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.41800643086816719</v>
       </c>
       <c r="G59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.70693166326266077</v>
       </c>
       <c r="H59">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G59^($G$38*F59^2+$G$39*LOG(F59+0.0001)+$G$40*SQRT(F59)+$G$41*EXP(F59)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>4.8531780021809015</v>
       </c>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>14</v>
       </c>
       <c r="C60">
-        <f>$C$2*SQRT($C$35+$C$36*(B60/$C$3)+$C$37*(B60/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>3.4551236165367492</v>
       </c>
       <c r="F60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.45016077170418006</v>
       </c>
       <c r="G60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.65811957059627701</v>
       </c>
       <c r="H60">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G60^($G$38*F60^2+$G$39*LOG(F60+0.0001)+$G$40*SQRT(F60)+$G$41*EXP(F60)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>4.7786411311310255</v>
       </c>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>15</v>
       </c>
       <c r="C61">
-        <f>$C$2*SQRT($C$35+$C$36*(B61/$C$3)+$C$37*(B61/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>3.2979219049487054</v>
       </c>
       <c r="F61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.48231511254019288</v>
       </c>
       <c r="G61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.6110217963694422</v>
       </c>
       <c r="H61">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G61^($G$38*F61^2+$G$39*LOG(F61+0.0001)+$G$40*SQRT(F61)+$G$41*EXP(F61)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>4.6881609823575374</v>
       </c>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>16</v>
       </c>
       <c r="C62">
-        <f>$C$2*SQRT($C$35+$C$36*(B62/$C$3)+$C$37*(B62/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>3.140039804038695</v>
       </c>
       <c r="F62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51446945337620575</v>
       </c>
       <c r="G62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.56546947975833461</v>
       </c>
       <c r="H62">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G62^($G$38*F62^2+$G$39*LOG(F62+0.0001)+$G$40*SQRT(F62)+$G$41*EXP(F62)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>4.5803160990076357</v>
       </c>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>17</v>
       </c>
       <c r="C63">
-        <f>$C$2*SQRT($C$35+$C$36*(B63/$C$3)+$C$37*(B63/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>2.9813692231876594</v>
       </c>
       <c r="F63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.54662379421221863</v>
       </c>
       <c r="G63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.52131978546783997</v>
       </c>
       <c r="H63">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G63^($G$38*F63^2+$G$39*LOG(F63+0.0001)+$G$40*SQRT(F63)+$G$41*EXP(F63)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>4.453744519611516</v>
       </c>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>18</v>
       </c>
       <c r="C64">
-        <f>$C$2*SQRT($C$35+$C$36*(B64/$C$3)+$C$37*(B64/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>2.8217771551293982</v>
       </c>
       <c r="F64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5787781350482315</v>
       </c>
       <c r="G64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.47845061197707883</v>
       </c>
       <c r="H64">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G64^($G$38*F64^2+$G$39*LOG(F64+0.0001)+$G$40*SQRT(F64)+$G$41*EXP(F64)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>4.3071713458805831</v>
       </c>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>19</v>
       </c>
       <c r="C65">
-        <f>$C$2*SQRT($C$35+$C$36*(B65/$C$3)+$C$37*(B65/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>2.6610978139982171</v>
       </c>
       <c r="F65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.61093247588424437</v>
       </c>
       <c r="G65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.43675660771043789</v>
       </c>
       <c r="H65">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G65^($G$38*F65^2+$G$39*LOG(F65+0.0001)+$G$40*SQRT(F65)+$G$41*EXP(F65)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>4.139439639289149</v>
       </c>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>20</v>
       </c>
       <c r="C66">
-        <f>$C$2*SQRT($C$35+$C$36*(B66/$C$3)+$C$37*(B66/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>2.4991214921124536</v>
       </c>
       <c r="F66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.64308681672025725</v>
       </c>
       <c r="G66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.39614612047074904</v>
       </c>
       <c r="H66">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G66^($G$38*F66^2+$G$39*LOG(F66+0.0001)+$G$40*SQRT(F66)+$G$41*EXP(F66)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>3.9495436454556696</v>
       </c>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>21</v>
       </c>
       <c r="C67">
-        <f>$C$2*SQRT($C$35+$C$36*(B67/$C$3)+$C$37*(B67/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>2.3355783616113204</v>
       </c>
       <c r="F67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.67524115755627001</v>
       </c>
       <c r="G67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.35653882606704701</v>
       </c>
       <c r="H67">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G67^($G$38*F67^2+$G$39*LOG(F67+0.0001)+$G$40*SQRT(F67)+$G$41*EXP(F67)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>3.7366627687443055</v>
       </c>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>22</v>
       </c>
       <c r="C68">
-        <f>$C$2*SQRT($C$35+$C$36*(B68/$C$3)+$C$37*(B68/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>2.1701142201119299</v>
       </c>
       <c r="F68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.70739549839228288</v>
       </c>
       <c r="G68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.3178638599776975</v>
       </c>
       <c r="H68">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G68^($G$38*F68^2+$G$39*LOG(F68+0.0001)+$G$40*SQRT(F68)+$G$41*EXP(F68)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>3.5001936850652302</v>
       </c>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>23</v>
       </c>
       <c r="C69">
-        <f>$C$2*SQRT($C$35+$C$36*(B69/$C$3)+$C$37*(B69/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>2.0022528730540898</v>
       </c>
       <c r="F69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.73954983922829576</v>
       </c>
       <c r="G69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.28005832746770642</v>
       </c>
       <c r="H69">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G69^($G$38*F69^2+$G$39*LOG(F69+0.0001)+$G$40*SQRT(F69)+$G$41*EXP(F69)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>3.2397760886811811</v>
       </c>
     </row>
-    <row r="70" spans="2:8">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>24</v>
       </c>
       <c r="C70">
-        <f>$C$2*SQRT($C$35+$C$36*(B70/$C$3)+$C$37*(B70/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>1.8313352509005707</v>
       </c>
       <c r="F70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.77170418006430863</v>
       </c>
       <c r="G70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.24306610247931215</v>
       </c>
       <c r="H70">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G70^($G$38*F70^2+$G$39*LOG(F70+0.0001)+$G$40*SQRT(F70)+$G$41*EXP(F70)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>2.9553038896158248</v>
       </c>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>25</v>
       </c>
       <c r="C71">
-        <f>$C$2*SQRT($C$35+$C$36*(B71/$C$3)+$C$37*(B71/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>1.6564155363148192</v>
       </c>
       <c r="F71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8038585209003215</v>
       </c>
       <c r="G71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.20683684969791827</v>
       </c>
       <c r="H71">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G71^($G$38*F71^2+$G$39*LOG(F71+0.0001)+$G$40*SQRT(F71)+$G$41*EXP(F71)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>2.6469059121037946</v>
       </c>
     </row>
-    <row r="72" spans="2:8">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>26</v>
       </c>
       <c r="C72">
-        <f>$C$2*SQRT($C$35+$C$36*(B72/$C$3)+$C$37*(B72/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>1.4760716279759318</v>
       </c>
       <c r="F72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.83601286173633438</v>
       </c>
       <c r="G72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1713252211108347</v>
       </c>
       <c r="H72">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G72^($G$38*F72^2+$G$39*LOG(F72+0.0001)+$G$40*SQRT(F72)+$G$41*EXP(F72)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>2.3148620411274834</v>
       </c>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>27</v>
       </c>
       <c r="C73">
-        <f>$C$2*SQRT($C$35+$C$36*(B73/$C$3)+$C$37*(B73/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>1.2880271220367527</v>
       </c>
       <c r="F73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.86816720257234725</v>
       </c>
       <c r="G73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13649019044991628</v>
       </c>
       <c r="H73">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G73^($G$38*F73^2+$G$39*LOG(F73+0.0001)+$G$40*SQRT(F73)+$G$41*EXP(F73)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>1.959373093743445</v>
       </c>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>28</v>
       </c>
       <c r="C74">
-        <f>$C$2*SQRT($C$35+$C$36*(B74/$C$3)+$C$37*(B74/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>1.0882976052098101</v>
       </c>
       <c r="F74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.90032154340836013</v>
       </c>
       <c r="G74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10229449765422238</v>
       </c>
       <c r="H74">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G74^($G$38*F74^2+$G$39*LOG(F74+0.0001)+$G$40*SQRT(F74)+$G$41*EXP(F74)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>1.5799554460520757</v>
       </c>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>29</v>
       </c>
       <c r="C75">
-        <f>$C$2*SQRT($C$35+$C$36*(B75/$C$3)+$C$37*(B75/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>0.86886183143517048</v>
       </c>
       <c r="F75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.932475884244373</v>
       </c>
       <c r="G75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.8704181908558093E-2</v>
       </c>
       <c r="H75">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G75^($G$38*F75^2+$G$39*LOG(F75+0.0001)+$G$40*SQRT(F75)+$G$41*EXP(F75)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>1.173658886158119</v>
       </c>
     </row>
-    <row r="76" spans="2:8">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>30</v>
       </c>
       <c r="C76">
-        <f>$C$2*SQRT($C$35+$C$36*(B76/$C$3)+$C$37*(B76/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>0.60877046656412293</v>
       </c>
       <c r="F76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.96463022508038576</v>
       </c>
       <c r="G76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.5688186585046466E-2</v>
       </c>
       <c r="H76">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G76^($G$38*F76^2+$G$39*LOG(F76+0.0001)+$G$40*SQRT(F76)+$G$41*EXP(F76)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>0.72801614405961323</v>
       </c>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>31</v>
       </c>
       <c r="C77">
-        <f>$C$2*SQRT($C$35+$C$36*(B77/$C$3)+$C$37*(B77/$C$3)^2)</f>
+        <f t="shared" si="5"/>
         <v>0.17729487869898394</v>
       </c>
       <c r="F77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.99678456591639863</v>
       </c>
       <c r="G77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.2180230016110034E-3</v>
       </c>
       <c r="H77">
-        <f>$G$35*$C$2^$G$36*$G$37^$C$2*G77^($G$38*F77^2+$G$39*LOG(F77+0.0001)+$G$40*SQRT(F77)+$G$41*EXP(F77)+$G$42*$C$2/$C$3)</f>
+        <f t="shared" si="7"/>
         <v>0.14541372854206544</v>
       </c>
     </row>
@@ -4514,13 +4513,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5056D352-13B3-4414-998E-63C47BA6BCAC}">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
@@ -4532,14 +4531,14 @@
     <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="5" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" customWidth="1"/>
     <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -4591,8 +4590,11 @@
       <c r="Q1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -4619,8 +4621,12 @@
         <f t="array" ref="Q2">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D2,J2,1,0)</f>
         <v>7.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <f>(PI() * (D2/2)^2) / 144</f>
+        <v>0.3490658503988659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -4639,16 +4645,20 @@
       <c r="J3">
         <v>93</v>
       </c>
-      <c r="P3" s="27" cm="1">
+      <c r="P3" cm="1">
         <f t="array" ref="P3">[1]!calcTotCubic(1,16,Sheet1!$C$5,D3,J3)</f>
         <v>47.2</v>
       </c>
-      <c r="Q3" s="27" cm="1">
+      <c r="Q3" cm="1">
         <f t="array" ref="Q3">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D3,J3,1,0)</f>
         <v>42.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <f t="shared" ref="R3:R34" si="0">(PI() * (D3/2)^2) / 144</f>
+        <v>1.413771235654532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -4667,16 +4677,20 @@
       <c r="J4">
         <v>34</v>
       </c>
-      <c r="P4" s="27" cm="1">
+      <c r="P4" cm="1">
         <f t="array" ref="P4">[1]!calcTotCubic(1,16,Sheet1!$C$5,D4,J4)</f>
         <v>3.8</v>
       </c>
-      <c r="Q4" s="27" cm="1">
+      <c r="Q4" cm="1">
         <f t="array" ref="Q4">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D4,J4,1,0)</f>
         <v>3.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>0.2906518619961807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -4695,16 +4709,20 @@
       <c r="J5">
         <v>88</v>
       </c>
-      <c r="P5" s="27" cm="1">
+      <c r="P5" cm="1">
         <f t="array" ref="P5">[1]!calcTotCubic(1,16,Sheet1!$C$5,D5,J5)</f>
         <v>42.9</v>
       </c>
-      <c r="Q5" s="27" cm="1">
+      <c r="Q5" cm="1">
         <f t="array" ref="Q5">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D5,J5,1,0)</f>
         <v>40.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>1.3615749827120764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -4723,16 +4741,20 @@
       <c r="J6">
         <v>68</v>
       </c>
-      <c r="P6" s="27" cm="1">
+      <c r="P6" cm="1">
         <f t="array" ref="P6">[1]!calcTotCubic(1,16,Sheet1!$C$5,D6,J6)</f>
         <v>10.4</v>
       </c>
-      <c r="Q6" s="27" cm="1">
+      <c r="Q6" cm="1">
         <f t="array" ref="Q6">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D6,J6,1,0)</f>
         <v>8.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>0.38484510006474965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -4751,16 +4773,20 @@
       <c r="J7">
         <v>68</v>
       </c>
-      <c r="P7" s="27" cm="1">
+      <c r="P7" cm="1">
         <f t="array" ref="P7">[1]!calcTotCubic(1,16,Sheet1!$C$5,D7,J7)</f>
         <v>7.6</v>
       </c>
-      <c r="Q7" s="27" cm="1">
+      <c r="Q7" cm="1">
         <f t="array" ref="Q7">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D7,J7,1,0)</f>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>0.27494389872823172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -4779,16 +4805,20 @@
       <c r="J8">
         <v>78</v>
       </c>
-      <c r="P8" s="27" cm="1">
+      <c r="P8" cm="1">
         <f t="array" ref="P8">[1]!calcTotCubic(1,16,Sheet1!$C$5,D8,J8)</f>
         <v>10.4</v>
       </c>
-      <c r="Q8" s="27" cm="1">
+      <c r="Q8" cm="1">
         <f t="array" ref="Q8">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D8,J8,1,0)</f>
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>0.33183072403542185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -4807,16 +4837,20 @@
       <c r="J9">
         <v>71</v>
       </c>
-      <c r="P9" s="27" cm="1">
+      <c r="P9" cm="1">
         <f t="array" ref="P9">[1]!calcTotCubic(1,16,Sheet1!$C$5,D9,J9)</f>
         <v>11.4</v>
       </c>
-      <c r="Q9" s="27" cm="1">
+      <c r="Q9" cm="1">
         <f t="array" ref="Q9">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D9,J9,1,0)</f>
         <v>11.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>0.40338922336718935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4835,16 +4869,20 @@
       <c r="J10">
         <v>82</v>
       </c>
-      <c r="P10" s="27" cm="1">
+      <c r="P10" cm="1">
         <f t="array" ref="P10">[1]!calcTotCubic(1,16,Sheet1!$C$5,D10,J10)</f>
         <v>13.2</v>
       </c>
-      <c r="Q10" s="27" cm="1">
+      <c r="Q10" cm="1">
         <f t="array" ref="Q10">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D10,J10,1,0)</f>
         <v>12.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>0.40338922336718935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4863,16 +4901,20 @@
       <c r="J11">
         <v>55</v>
       </c>
-      <c r="P11" s="27" cm="1">
+      <c r="P11" cm="1">
         <f t="array" ref="P11">[1]!calcTotCubic(1,16,Sheet1!$C$5,D11,J11)</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="Q11" s="27" cm="1">
+      <c r="Q11" cm="1">
         <f t="array" ref="Q11">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D11,J11,1,0)</f>
         <v>6.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>0.38484510006474965</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -4891,16 +4933,20 @@
       <c r="J12">
         <v>76</v>
       </c>
-      <c r="P12" s="27" cm="1">
+      <c r="P12" cm="1">
         <f t="array" ref="P12">[1]!calcTotCubic(1,16,Sheet1!$C$5,D12,J12)</f>
         <v>13.5</v>
       </c>
-      <c r="Q12" s="27" cm="1">
+      <c r="Q12" cm="1">
         <f t="array" ref="Q12">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D12,J12,1,0)</f>
         <v>12.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>0.45165848549265752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -4931,16 +4977,20 @@
       <c r="M13">
         <v>6</v>
       </c>
-      <c r="P13" s="27" cm="1">
+      <c r="P13" cm="1">
         <f t="array" ref="P13">[1]!calcTotCubic(1,16,Sheet1!$C$5,D13,J13)</f>
         <v>6.5</v>
       </c>
-      <c r="Q13" s="27" cm="1">
+      <c r="Q13" cm="1">
         <f t="array" ref="Q13">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D13,J13,1,0)</f>
         <v>5.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>0.25220007691318058</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -4962,16 +5012,20 @@
       <c r="O14" t="s">
         <v>70</v>
       </c>
-      <c r="P14" s="27" cm="1">
+      <c r="P14" cm="1">
         <f t="array" ref="P14">[1]!calcTotCubic(1,16,Sheet1!$C$5,D14,J14)</f>
         <v>18.7</v>
       </c>
-      <c r="Q14" s="27" cm="1">
+      <c r="Q14" cm="1">
         <f t="array" ref="Q14">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D14,J14,1,0)</f>
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>0.54541539124822802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -4990,16 +5044,20 @@
       <c r="J15">
         <v>69</v>
       </c>
-      <c r="P15" s="27" cm="1">
+      <c r="P15" cm="1">
         <f t="array" ref="P15">[1]!calcTotCubic(1,16,Sheet1!$C$5,D15,J15)</f>
         <v>7.3</v>
       </c>
-      <c r="Q15" s="27" cm="1">
+      <c r="Q15" cm="1">
         <f t="array" ref="Q15">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D15,J15,1,0)</f>
         <v>6.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>0.25967226777328134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -5018,16 +5076,20 @@
       <c r="J16">
         <v>51</v>
       </c>
-      <c r="P16" s="27" cm="1">
+      <c r="P16" cm="1">
         <f t="array" ref="P16">[1]!calcTotCubic(1,16,Sheet1!$C$5,D16,J16)</f>
         <v>3.4</v>
       </c>
-      <c r="Q16" s="27" cm="1">
+      <c r="Q16" cm="1">
         <f t="array" ref="Q16">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D16,J16,1,0)</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>0.15904312808798329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -5046,16 +5108,20 @@
       <c r="O17" t="s">
         <v>72</v>
       </c>
-      <c r="P17" s="27" t="str" cm="1">
+      <c r="P17" t="str" cm="1">
         <f t="array" ref="P17">[1]!calcTotCubic(1,16,Sheet1!$C$5,D17,J17)</f>
         <v>#DBH&lt;1!</v>
       </c>
-      <c r="Q17" s="27" t="str" cm="1">
+      <c r="Q17" t="str" cm="1">
         <f t="array" ref="Q17">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D17,J17,1,0)</f>
         <v>#DBH&lt;1!</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
@@ -5074,16 +5140,20 @@
       <c r="J18">
         <v>88</v>
       </c>
-      <c r="P18" s="27" cm="1">
+      <c r="P18" cm="1">
         <f t="array" ref="P18">[1]!calcTotCubic(1,16,Sheet1!$C$5,D18,J18)</f>
         <v>32.9</v>
       </c>
-      <c r="Q18" s="27" cm="1">
+      <c r="Q18" cm="1">
         <f t="array" ref="Q18">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D18,J18,1,0)</f>
         <v>29.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>1.0088003076527223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -5105,16 +5175,20 @@
       <c r="N19">
         <v>5.0999999999999996</v>
       </c>
-      <c r="P19" s="27" cm="1">
+      <c r="P19" cm="1">
         <f t="array" ref="P19">[1]!calcTotCubic(1,16,Sheet1!$C$5,D19,J19)</f>
         <v>13.6</v>
       </c>
-      <c r="Q19" s="27" cm="1">
+      <c r="Q19" cm="1">
         <f t="array" ref="Q19">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D19,J19,1,0)</f>
         <v>11.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>0.46163958715250009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
@@ -5133,16 +5207,20 @@
       <c r="J20">
         <v>83</v>
       </c>
-      <c r="P20" s="27" cm="1">
+      <c r="P20" cm="1">
         <f t="array" ref="P20">[1]!calcTotCubic(1,16,Sheet1!$C$5,D20,J20)</f>
         <v>21.7</v>
       </c>
-      <c r="Q20" s="27" cm="1">
+      <c r="Q20" cm="1">
         <f t="array" ref="Q20">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D20,J20,1,0)</f>
         <v>21.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>0.68416906678177702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -5164,16 +5242,20 @@
       <c r="O21" t="s">
         <v>73</v>
       </c>
-      <c r="P21" s="27" cm="1">
+      <c r="P21" cm="1">
         <f t="array" ref="P21">[1]!calcTotCubic(1,16,Sheet1!$C$5,D21,J21)</f>
         <v>3.4</v>
       </c>
-      <c r="Q21" s="27" cm="1">
+      <c r="Q21" cm="1">
         <f t="array" ref="Q21">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D21,J21,1,0)</f>
         <v>2.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>0.19634954084936207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9</v>
       </c>
@@ -5192,16 +5274,20 @@
       <c r="J22">
         <v>96</v>
       </c>
-      <c r="P22" s="27" cm="1">
+      <c r="P22" cm="1">
         <f t="array" ref="P22">[1]!calcTotCubic(1,16,Sheet1!$C$5,D22,J22)</f>
         <v>38.5</v>
       </c>
-      <c r="Q22" s="27" cm="1">
+      <c r="Q22" cm="1">
         <f t="array" ref="Q22">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D22,J22,1,0)</f>
         <v>35.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>1.0843403393406019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
@@ -5220,16 +5306,20 @@
       <c r="J23">
         <v>53</v>
       </c>
-      <c r="P23" s="27" cm="1">
+      <c r="P23" cm="1">
         <f t="array" ref="P23">[1]!calcTotCubic(1,16,Sheet1!$C$5,D23,J23)</f>
         <v>6.6</v>
       </c>
-      <c r="Q23" s="27" cm="1">
+      <c r="Q23" cm="1">
         <f t="array" ref="Q23">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D23,J23,1,0)</f>
         <v>6.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>0.31503192998497648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9</v>
       </c>
@@ -5251,16 +5341,20 @@
       <c r="O24" t="s">
         <v>74</v>
       </c>
-      <c r="P24" s="27" cm="1">
+      <c r="P24" cm="1">
         <f t="array" ref="P24">[1]!calcTotCubic(1,16,Sheet1!$C$5,D24,J24)</f>
         <v>2.9</v>
       </c>
-      <c r="Q24" s="27" cm="1">
+      <c r="Q24" cm="1">
         <f t="array" ref="Q24">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D24,J24,1,0)</f>
         <v>2.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>0.17104226669544426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9</v>
       </c>
@@ -5279,16 +5373,20 @@
       <c r="J25">
         <v>107</v>
       </c>
-      <c r="P25" s="27" cm="1">
+      <c r="P25" cm="1">
         <f t="array" ref="P25">[1]!calcTotCubic(1,16,Sheet1!$C$5,D25,J25)</f>
         <v>66.599999999999994</v>
       </c>
-      <c r="Q25" s="27" cm="1">
+      <c r="Q25" cm="1">
         <f t="array" ref="Q25">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D25,J25,1,0)</f>
         <v>63.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>1.747565455098447</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -5307,16 +5405,20 @@
       <c r="J26">
         <v>56</v>
       </c>
-      <c r="P26" s="27" cm="1">
+      <c r="P26" cm="1">
         <f t="array" ref="P26">[1]!calcTotCubic(1,16,Sheet1!$C$5,D26,J26)</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="Q26" s="27" cm="1">
+      <c r="Q26" cm="1">
         <f t="array" ref="Q26">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D26,J26,1,0)</f>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>0.40338922336718935</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9</v>
       </c>
@@ -5335,16 +5437,20 @@
       <c r="J27">
         <v>50</v>
       </c>
-      <c r="P27" s="27" cm="1">
+      <c r="P27" cm="1">
         <f t="array" ref="P27">[1]!calcTotCubic(1,16,Sheet1!$C$5,D27,J27)</f>
         <v>9</v>
       </c>
-      <c r="Q27" s="27" cm="1">
+      <c r="Q27" cm="1">
         <f t="array" ref="Q27">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D27,J27,1,0)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>0.48192903970693429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
@@ -5363,16 +5469,20 @@
       <c r="J28">
         <v>96</v>
       </c>
-      <c r="P28" s="27" cm="1">
+      <c r="P28" cm="1">
         <f t="array" ref="P28">[1]!calcTotCubic(1,16,Sheet1!$C$5,D28,J28)</f>
         <v>38</v>
       </c>
-      <c r="Q28" s="27" cm="1">
+      <c r="Q28" cm="1">
         <f t="array" ref="Q28">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D28,J28,1,0)</f>
         <v>35.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>1.0690141668465267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9</v>
       </c>
@@ -5391,16 +5501,20 @@
       <c r="J29">
         <v>90</v>
       </c>
-      <c r="P29" s="27" cm="1">
+      <c r="P29" cm="1">
         <f t="array" ref="P29">[1]!calcTotCubic(1,16,Sheet1!$C$5,D29,J29)</f>
         <v>52.1</v>
       </c>
-      <c r="Q29" s="27" cm="1">
+      <c r="Q29" cm="1">
         <f t="array" ref="Q29">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D29,J29,1,0)</f>
         <v>47.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>1.6512996385431347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9</v>
       </c>
@@ -5419,16 +5533,20 @@
       <c r="J30">
         <v>93</v>
       </c>
-      <c r="P30" s="27" cm="1">
+      <c r="P30" cm="1">
         <f t="array" ref="P30">[1]!calcTotCubic(1,16,Sheet1!$C$5,D30,J30)</f>
         <v>38.700000000000003</v>
       </c>
-      <c r="Q30" s="27" cm="1">
+      <c r="Q30" cm="1">
         <f t="array" ref="Q30">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D30,J30,1,0)</f>
         <v>35.799999999999997</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>1.1309733552923256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>9</v>
       </c>
@@ -5447,16 +5565,20 @@
       <c r="J31">
         <v>93</v>
       </c>
-      <c r="P31" s="27" cm="1">
+      <c r="P31" cm="1">
         <f t="array" ref="P31">[1]!calcTotCubic(1,16,Sheet1!$C$5,D31,J31)</f>
         <v>47.2</v>
       </c>
-      <c r="Q31" s="27" cm="1">
+      <c r="Q31" cm="1">
         <f t="array" ref="Q31">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D31,J31,1,0)</f>
         <v>42.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>1.413771235654532</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
@@ -5475,16 +5597,20 @@
       <c r="J32">
         <v>26</v>
       </c>
-      <c r="P32" s="27" t="str" cm="1">
+      <c r="P32" t="str" cm="1">
         <f t="array" ref="P32">[1]!calcTotCubic(1,16,Sheet1!$C$5,D32,J32)</f>
         <v>#DBH&lt;1!</v>
       </c>
-      <c r="Q32" s="27" t="str" cm="1">
+      <c r="Q32" t="str" cm="1">
         <f t="array" ref="Q32">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D32,J32,1,0)</f>
         <v>#DBH&lt;1!</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -5503,16 +5629,20 @@
       <c r="J33">
         <v>86</v>
       </c>
-      <c r="P33" s="27" cm="1">
+      <c r="P33" cm="1">
         <f t="array" ref="P33">[1]!calcTotCubic(1,16,Sheet1!$C$5,D33,J33)</f>
         <v>19.600000000000001</v>
       </c>
-      <c r="Q33" s="27" cm="1">
+      <c r="Q33" cm="1">
         <f t="array" ref="Q33">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D33,J33,1,0)</f>
         <v>17.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33">
+        <f t="shared" si="0"/>
+        <v>0.58992128717408343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -5528,39 +5658,18 @@
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="P34" s="27" t="str" cm="1">
+      <c r="P34" t="str" cm="1">
         <f t="array" ref="P34">[1]!calcTotCubic(1,16,Sheet1!$C$5,D34,J34)</f>
         <v>#HT&lt;4.5!</v>
       </c>
-      <c r="Q34" s="27" t="str" cm="1">
+      <c r="Q34" t="str" cm="1">
         <f t="array" ref="Q34">[1]!calcMerchCubic(1,16,Sheet1!$C$5,D34,J34,1,0)</f>
         <v>#HT&lt;4.5!</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="P39" s="27"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="P40" s="27"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="P41" s="27"/>
+      <c r="R34">
+        <f t="shared" si="0"/>
+        <v>1.2271846303085129E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
